--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
     <t>Fzd8</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H2">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>0.142275621792</v>
+        <v>0.2735529502063333</v>
       </c>
       <c r="R2">
-        <v>1.280480596128</v>
+        <v>2.461976551857</v>
       </c>
       <c r="S2">
-        <v>0.1284523376175785</v>
+        <v>0.1037261252448971</v>
       </c>
       <c r="T2">
-        <v>0.1284523376175785</v>
+        <v>0.1037261252448971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H3">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
-        <v>0.7374795598293333</v>
+        <v>1.040586082820222</v>
       </c>
       <c r="R3">
-        <v>6.637316038464</v>
+        <v>9.365274745381999</v>
       </c>
       <c r="S3">
-        <v>0.6658271614778304</v>
+        <v>0.394570638968778</v>
       </c>
       <c r="T3">
-        <v>0.6658271614778303</v>
+        <v>0.3945706389687781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H4">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>0.2271752391466667</v>
+        <v>0.3950906278684443</v>
       </c>
       <c r="R4">
-        <v>2.04457715232</v>
+        <v>3.555815650815999</v>
       </c>
       <c r="S4">
-        <v>0.2051032365887898</v>
+        <v>0.1498109229619213</v>
       </c>
       <c r="T4">
-        <v>0.2051032365887898</v>
+        <v>0.1498109229619214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.09043966666666665</v>
+      </c>
+      <c r="H5">
+        <v>0.271319</v>
+      </c>
+      <c r="I5">
+        <v>0.6497600390834546</v>
+      </c>
+      <c r="J5">
+        <v>0.6497600390834546</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.04818333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.14455</v>
+      </c>
+      <c r="O5">
+        <v>0.002543018666073676</v>
+      </c>
+      <c r="P5">
+        <v>0.002543018666073677</v>
+      </c>
+      <c r="Q5">
+        <v>0.004357684605555555</v>
+      </c>
+      <c r="R5">
+        <v>0.03921916145</v>
+      </c>
+      <c r="S5">
+        <v>0.001652351907857987</v>
+      </c>
+      <c r="T5">
+        <v>0.001652351907857987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.066467</v>
+      </c>
+      <c r="I6">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J6">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.024701</v>
+      </c>
+      <c r="N6">
+        <v>9.074103000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.1596375877334842</v>
+      </c>
+      <c r="P6">
+        <v>0.1596375877334843</v>
+      </c>
+      <c r="Q6">
+        <v>0.06701426712233334</v>
+      </c>
+      <c r="R6">
+        <v>0.603128404101</v>
+      </c>
+      <c r="S6">
+        <v>0.02541054760872839</v>
+      </c>
+      <c r="T6">
+        <v>0.0254105476087284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.066467</v>
+      </c>
+      <c r="I7">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J7">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11.50585933333333</v>
+      </c>
+      <c r="N7">
+        <v>34.517578</v>
+      </c>
+      <c r="O7">
+        <v>0.6072559333217162</v>
+      </c>
+      <c r="P7">
+        <v>0.6072559333217163</v>
+      </c>
+      <c r="Q7">
+        <v>0.2549199841028889</v>
+      </c>
+      <c r="R7">
+        <v>2.294279856926</v>
+      </c>
+      <c r="S7">
+        <v>0.09666085552555395</v>
+      </c>
+      <c r="T7">
+        <v>0.09666085552555398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.066467</v>
+      </c>
+      <c r="I8">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J8">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.368554666666666</v>
+      </c>
+      <c r="N8">
+        <v>13.105664</v>
+      </c>
+      <c r="O8">
+        <v>0.2305634602787257</v>
+      </c>
+      <c r="P8">
+        <v>0.2305634602787257</v>
+      </c>
+      <c r="Q8">
+        <v>0.09678824100977777</v>
+      </c>
+      <c r="R8">
+        <v>0.871094169088</v>
+      </c>
+      <c r="S8">
+        <v>0.03670027759393934</v>
+      </c>
+      <c r="T8">
+        <v>0.03670027759393935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.066467</v>
+      </c>
+      <c r="I9">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J9">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.04818333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.14455</v>
+      </c>
+      <c r="O9">
+        <v>0.002543018666073676</v>
+      </c>
+      <c r="P9">
+        <v>0.002543018666073677</v>
+      </c>
+      <c r="Q9">
+        <v>0.001067533872222222</v>
+      </c>
+      <c r="R9">
+        <v>0.00960780485</v>
+      </c>
+      <c r="S9">
+        <v>0.0004047887330396943</v>
+      </c>
+      <c r="T9">
+        <v>0.0004047887330396943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.026594</v>
+      </c>
+      <c r="H10">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J10">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.024701</v>
+      </c>
+      <c r="N10">
+        <v>9.074103000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1596375877334842</v>
+      </c>
+      <c r="P10">
+        <v>0.1596375877334843</v>
+      </c>
+      <c r="Q10">
+        <v>0.08043889839400002</v>
+      </c>
+      <c r="R10">
+        <v>0.7239500855460002</v>
+      </c>
+      <c r="S10">
+        <v>0.03050091487985871</v>
+      </c>
+      <c r="T10">
+        <v>0.03050091487985871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.026594</v>
+      </c>
+      <c r="H11">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J11">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.50585933333333</v>
+      </c>
+      <c r="N11">
+        <v>34.517578</v>
+      </c>
+      <c r="O11">
+        <v>0.6072559333217162</v>
+      </c>
+      <c r="P11">
+        <v>0.6072559333217163</v>
+      </c>
+      <c r="Q11">
+        <v>0.3059868231106667</v>
+      </c>
+      <c r="R11">
+        <v>2.753881407996</v>
+      </c>
+      <c r="S11">
+        <v>0.1160244388273842</v>
+      </c>
+      <c r="T11">
+        <v>0.1160244388273842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.026594</v>
+      </c>
+      <c r="H12">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J12">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.368554666666666</v>
+      </c>
+      <c r="N12">
+        <v>13.105664</v>
+      </c>
+      <c r="O12">
+        <v>0.2305634602787257</v>
+      </c>
+      <c r="P12">
+        <v>0.2305634602787257</v>
+      </c>
+      <c r="Q12">
+        <v>0.1161773428053333</v>
+      </c>
+      <c r="R12">
+        <v>1.045596085248</v>
+      </c>
+      <c r="S12">
+        <v>0.04405225972286501</v>
+      </c>
+      <c r="T12">
+        <v>0.04405225972286501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.026594</v>
+      </c>
+      <c r="H13">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J13">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.064096</v>
-      </c>
-      <c r="H5">
-        <v>0.192288</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01066666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.032</v>
-      </c>
-      <c r="O5">
-        <v>0.0006172643158013743</v>
-      </c>
-      <c r="P5">
-        <v>0.0006172643158013743</v>
-      </c>
-      <c r="Q5">
-        <v>0.0006836906666666667</v>
-      </c>
-      <c r="R5">
-        <v>0.006153216</v>
-      </c>
-      <c r="S5">
-        <v>0.0006172643158013743</v>
-      </c>
-      <c r="T5">
-        <v>0.0006172643158013743</v>
+      <c r="M13">
+        <v>0.04818333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.14455</v>
+      </c>
+      <c r="O13">
+        <v>0.002543018666073676</v>
+      </c>
+      <c r="P13">
+        <v>0.002543018666073677</v>
+      </c>
+      <c r="Q13">
+        <v>0.001281387566666667</v>
+      </c>
+      <c r="R13">
+        <v>0.0115324881</v>
+      </c>
+      <c r="S13">
+        <v>0.0004858780251759955</v>
+      </c>
+      <c r="T13">
+        <v>0.0004858780251759955</v>
       </c>
     </row>
   </sheetData>
